--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/15/seed1/result_data_RandomForest.xlsx
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-20.89399999999997</v>
+        <v>-20.73319999999998</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.72550000000001</v>
+        <v>-22.66590000000001</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-22.05040000000001</v>
+        <v>-21.99720000000001</v>
       </c>
       <c r="B7" t="n">
-        <v>4.635900000000001</v>
+        <v>5.076900000000003</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.759999999999998</v>
+        <v>4.804499999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -658,7 +658,7 @@
         <v>-15.83</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.464000000000004</v>
+        <v>-8.377700000000001</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.145900000000001</v>
+        <v>-8.323999999999998</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>5.156799999999999</v>
+        <v>5.193099999999998</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.60459999999999</v>
+        <v>-21.55849999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -709,7 +709,7 @@
         <v>-13.59</v>
       </c>
       <c r="D16" t="n">
-        <v>-9.03290000000001</v>
+        <v>-8.816100000000004</v>
       </c>
       <c r="E16" t="n">
         <v>14.68</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.307700000000002</v>
+        <v>-7.261299999999997</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-23.01430000000001</v>
+        <v>-23.1615</v>
       </c>
       <c r="B20" t="n">
-        <v>4.894299999999999</v>
+        <v>5.052599999999997</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>10.5284</v>
+        <v>10.60020000000001</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,13 +805,13 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>9.056500000000002</v>
+        <v>8.858700000000004</v>
       </c>
       <c r="C22" t="n">
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-8.166100000000004</v>
+        <v>-8.074800000000002</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>8.998700000000005</v>
+        <v>8.880500000000007</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-22.23389999999999</v>
+        <v>-22.2095</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.7163</v>
+        <v>-21.6891</v>
       </c>
       <c r="B29" t="n">
-        <v>5.034800000000002</v>
+        <v>5.101500000000002</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.07109999999998</v>
+        <v>-21.08599999999999</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,7 +1009,7 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>10.136</v>
+        <v>10.23770000000001</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-8.175299999999998</v>
+        <v>-7.800999999999997</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.6465</v>
+        <v>-19.40009999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>8.904799999999996</v>
+        <v>9.283300000000001</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,7 +1162,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>5.842600000000002</v>
+        <v>6.001400000000001</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.154200000000002</v>
+        <v>5.548999999999999</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>5.039200000000004</v>
+        <v>5.191900000000003</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,16 +1210,16 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-22.1525</v>
+        <v>-22.1632</v>
       </c>
       <c r="B46" t="n">
-        <v>5.410500000000004</v>
+        <v>5.530400000000006</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.982999999999997</v>
+        <v>-7.940199999999999</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1281,13 +1281,13 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.673899999999994</v>
+        <v>4.911899999999993</v>
       </c>
       <c r="C50" t="n">
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.190800000000001</v>
+        <v>-7.923399999999998</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-22.24149999999999</v>
+        <v>-22.308</v>
       </c>
       <c r="B51" t="n">
-        <v>5.949800000000002</v>
+        <v>5.620299999999999</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.01459999999999</v>
+        <v>-22.0768</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,7 +1397,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-22.70140000000002</v>
+        <v>-22.64180000000002</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.9338</v>
+        <v>-21.9102</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-21.985</v>
+        <v>-21.9641</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.55920000000001</v>
+        <v>-21.56649999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>5.154999999999998</v>
+        <v>5.061899999999998</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.299900000000001</v>
+        <v>5.241000000000001</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.1256</v>
+        <v>-20.0855</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.86209999999999</v>
+        <v>-21.92629999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>9.826800000000006</v>
+        <v>9.877100000000002</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.217000000000001</v>
+        <v>5.501500000000002</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.47190000000002</v>
+        <v>-21.41210000000001</v>
       </c>
       <c r="B92" t="n">
-        <v>4.670999999999996</v>
+        <v>5.059899999999995</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.400399999999999</v>
+        <v>-8.307599999999999</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2080,13 +2080,13 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>5.869299999999998</v>
+        <v>5.827700000000001</v>
       </c>
       <c r="C97" t="n">
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.519299999999996</v>
+        <v>-8.667899999999996</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.9449</v>
+        <v>-21.989</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
